--- a/FoundData/CanadaDataInvestigation.xlsx
+++ b/FoundData/CanadaDataInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A804176-9C54-3348-A04D-FDF6A9BD1048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF824BE9-C41E-DA48-A71A-1106AE65856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="6080" windowWidth="28040" windowHeight="17440" xr2:uid="{057CB1F5-B2FC-4B47-80C1-67359F9ECE82}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{057CB1F5-B2FC-4B47-80C1-67359F9ECE82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="76">
   <si>
     <t>Country</t>
   </si>
@@ -71,24 +71,12 @@
     <t xml:space="preserve">Reduced number of farmers dude to most of them being baby boomers and retiring. Resulting in smaller number of farms raising cattle. However net exports of beef to the USA are up so herd sizes should be growing, not decreasing. </t>
   </si>
   <si>
-    <t>Demographics of the Canadian dairy industry from 1991 to 2011. 10.1111/J.1744-7976.2004.TB00094.X</t>
-  </si>
-  <si>
     <t>FAOSTAT</t>
   </si>
   <si>
-    <t>Increased slaughter of Cattle most likely correlates to higher population numbers to be slaughtering</t>
-  </si>
-  <si>
-    <t>The Canadian beef industry.</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t xml:space="preserve">Canadians are eating half as much red meat now compare to the 1970s (Peak red meat consumption), and the amount exported has remained consistant. This indicates there is less Cattle needed to provide the meat which the data coroborates. </t>
-  </si>
-  <si>
     <t>https://agriculture.canada.ca/en/sector/animal-industry/red-meat-and-livestock-market-information/trade/canadian-red-meat-export-percentages, https://www.cbc.ca/news/canada/montreal/canada-food-trends-1.4742309</t>
   </si>
   <si>
@@ -131,18 +119,12 @@
     <t>All (Except 2002-2006)</t>
   </si>
   <si>
-    <t>Canadians are eating more chicken every year since 1970 (earliest date found) and replacing all other livestock based proteins with it. Since 1970 chicken consumption per person has more than 10x'd. The population of chicken is up 2 times in the same time period. If the chicken population is instantanious population, and the average lifespan is 50 days. That means there is ~7 times the amount of chickens raised per year which closely aligns with the canadian chicken consumption. This shows it's a high probability of being correct</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chicken </t>
   </si>
   <si>
     <t>1989+</t>
   </si>
   <si>
-    <t xml:space="preserve">The flags are all Forecasted. So they never actually gathered any of this data. It's suspitious. </t>
-  </si>
-  <si>
     <t>https://gbadske.org/dashboards/visualizer/</t>
   </si>
   <si>
@@ -152,9 +134,6 @@
     <t>Census</t>
   </si>
   <si>
-    <t>The data does not match FAOSTAT or WOAH. The governemnt of canada does not even cite their own survery on their website so that would lead me to believe they have more confidence in the WOAH numbers than their own.</t>
-  </si>
-  <si>
     <t>https://agriculture.canada.ca/en/sector/animal-industry/red-meat-and-livestock-market-information/customized-report-service-market-overview-canadian-lamb-and-sheep-meat-and-related-product-trends</t>
   </si>
   <si>
@@ -173,22 +152,118 @@
     <t>Pigs</t>
   </si>
   <si>
-    <t>2?</t>
-  </si>
-  <si>
-    <t>The Canadian pork industry and COVID‐19: A year of resilience (https://doi.org/10.1111/cjag.12276(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paper says Canada slaughtered &gt;22 million hogs but our sources say there is only 12 million alive. Seems suspitious. Paper also says they talked to meat processing plant managers and they confirm the slaughter numbers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gov of canada confirms  ~22 million hogs killed. Hogs can have on avg 7.5 babies per litter, and have two litters per year. The litters also take 6 months to come to market size. Not sure how 13 million is counted by our sources tho. </t>
-  </si>
-  <si>
     <t>https://agriculture.canada.ca/en/sector/animal-industry/red-meat-livestock-market-information/industry-profile</t>
   </si>
   <si>
-    <t>Note, all sources I can find reference the above sources. So there isn't much else I can go off of.</t>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/cjag.12276</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26130831/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadians are eating half as much red meat now compare to the 1970s (Peak red meat consumption), and the amount exported has remained consistent. This indicates there is less Cattle needed to provide the meat which the data corroborates. </t>
+  </si>
+  <si>
+    <t>Canadians are eating more chicken every year since 1970 (earliest date found) and replacing all other livestock based proteins with it. Since 1970 chicken consumption per person has more than 10x'd. The population of chicken is up 2 times in the same time period. If the chicken population is instantaneous population, and the average lifespan is 50 days. That means there is ~7 times the amount of chickens raised per year which closely aligns with the Canadian chicken consumption. This shows it's a high probability of being correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The flags are all Forecasted. So they never actually gathered any of this data. It's suspicious. </t>
+  </si>
+  <si>
+    <t>The data does not match FAOSTAT or WOAH. The government of Canada does not even cite their own survey on their website so that would lead me to believe they have more confidence in the WOAH numbers than their own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper says Canada slaughtered &gt;22 million hogs but our sources say there is only 12 million alive. Seems suspicious. Paper also says they talked to meat processing plant managers and they confirm the slaughter numbers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gov of Canada confirms  ~22 million hogs killed. Hogs can have on avg 7.5 babies per litter, and have two litters per year. The litters also take 6 months to come to market size. Not sure how 13 million is counted by our sources though. </t>
+  </si>
+  <si>
+    <t>1961-1962</t>
+  </si>
+  <si>
+    <t>https://climatedata.ca/case-study/drought-and-agriculture/#:~:text=Many%20other%20significant%20droughts%20have,%2C4%20(Figure%201)., https://www150.statcan.gc.ca/n1/pub/95-640-x/2016001/article/14808-eng.htm</t>
+  </si>
+  <si>
+    <t>Between 1960-1962 there was a drought in Canada. Droughts severly affect the canadian prairies and since 75% of canadian cattle are in Alberta, Saskatchewan, and Manitoba, we should see it impact on the cattle population. However, the FAOSTAT cattle population for this year shows an increase of 200k cattle or a little under 2 percent. As the drought was only 3 years long. It is realistic for the population to increase by a little since Canada is a big country, and other provinces could have picked up the slack from the prairies.</t>
+  </si>
+  <si>
+    <t>2001-2003</t>
+  </si>
+  <si>
+    <t>Between 2001-2003 there was a drought in Canada. Droughts severly affect the canadian prairies and since 75% of canadian cattle are in Alberta, Saskatchewan, and Manitoba, we should see it impact on the cattle population. FAOSTAT shows the population initially increasing in 2002 and then dropping bellow the 2001 numbers in 2003. This makes sense because lack of grass and feed due to reduced rain. This will also make food more expensive in the winter since there's less crops and less crop by product to feed the cows.</t>
+  </si>
+  <si>
+    <t>1988-1989</t>
+  </si>
+  <si>
+    <t>Between 1988-1989 there was a drought in Canada. Droughts severly affect the canadian prairies and since 75% of canadian cattle are in Alberta, Saskatchewan, and Manitoba, we should see it impact on the cattle population. However, the FAOSTAT cattle population for this year shows an increase of ~200k cattle or a little under 2 percent. As the drought was only a yeara long. It is realistic for the population to increase by a little since Canada is a big country, and other provinces could have picked up the slack from the prairies.</t>
+  </si>
+  <si>
+    <t>2008-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2008 a recession hit canada and it would take until 2010 for the GDP of canada to recover to 2008 numbers. This was hard on consumers and as a result forced consumers to buy cheaper alternative products as many lost their jobs and tightened their wallets. So many consumers often buy cheaper protein, and reduce the amount of beef they are buying. This means we should see the beef population stagenate or decrease following a recesssion as consumers buy less so farmers produce less. FAOSTAT shows a decrease in cattle population over this time. However, we start to see the population start decreasing before 2008 and continue past 2010 so there is most likely another external factor affecting the population. </t>
+  </si>
+  <si>
+    <t>WOAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2008 a recession hit canada and it would take until 2010 for the GDP of canada to recover to 2008 numbers. This was hard on consumers and as a result forced consumers to buy cheaper alternative products as many lost their jobs and tightened their wallets. So many consumers often buy cheaper protein, and reduce the amount of beef they are buying. This means we should see the beef population stagenate or decrease following a recesssion as consumers buy less so farmers produce less. WOAH shows the population of cattle decrease by a little in 2009, then decline by a larger amount in 2010. This could be because stocks increased in 2009 with the unexpected decrease in demand, then stocks fell more in 2010 due to farmers reducing supply to match the decrease in consumer demand. However, we start to see the population start decreasing before 2008 and continue past 2010 so there is most likely another external factor affecting the population. </t>
+  </si>
+  <si>
+    <t>https://www.thecanadianencyclopedia.ca/en/article/recession#:~:text=dates%20in%20Canada.-,History%20of%20Recessions%20in%20Canada,09%20recession%2C%20lasted%20seven%20months.</t>
+  </si>
+  <si>
+    <t>2002-2006</t>
+  </si>
+  <si>
+    <t>2007-2011</t>
+  </si>
+  <si>
+    <t>FAOSTAT between these dates showed zero change in population which is extremely unliklely given how many years this pattern covers.</t>
+  </si>
+  <si>
+    <t>https://gbadske.org/dashboards/census/</t>
+  </si>
+  <si>
+    <t>In 2008 a recession hit canada and it would take until 2010 for the GDP of canada to recover to 2008 numbers. This was hard on consumers and as a result forced consumers to buy cheaper alternative products as many lost their jobs and tightened their wallets. So many consumers often buy cheaper protein, and reduce the amount of beef they are buying. Pork is generally a cheaper protein so we would expect to see pork populations increase to handle this increase in consumer demand. Between 2006 and 2008 FAOSTAT shows the pig population declining. However, in 2008 through 2010 we see the pig population stagnate instead of decrease. This could be in response to the increased consumer demand so this would make sense as a trend in the data.</t>
+  </si>
+  <si>
+    <t>1990-1992</t>
+  </si>
+  <si>
+    <t>In 1990 Canada had a two year recession. The Bank of Canada had to raise interest rates to as high as 14.75% which put a lot of pressure on Canadian consumers. As a result we would expect consumer preference to drop toward cheaper protein so consumption of beef would drop. Between 1990 and 1992 we see the cattle population increase by 600k cows. This is a little suprising but given that the population was on an almost constant growth trend between 1987 and 2005, this can be explained a little by that fact althought we should see an impact from the recession.</t>
+  </si>
+  <si>
+    <t>In 1990 Canada had a two year recession. The Bank of Canada had to raise interest rates to as high as 14.75% which put a lot of pressure on Canadian consumers. As a result we would expect consumer preference to drop toward cheaper protein so consumption of beef would drop and the consumptio of chicken and pork to increase due to their lower price. Between 1990 and 1992 we see the chicken population stagnate and actually decrease in 1992. This is not what we would expect given the economic climate at the time.</t>
+  </si>
+  <si>
+    <t>In 1990 Canada had a two year recession. The Bank of Canada had to raise interest rates to as high as 14.75% which put a lot of pressure on Canadian consumers. As a result we would expect consumer preference to drop toward cheaper protein so consumption of beef would drop and the consumptio of chicken and pork to increase due to their lower price. Between 1990 and 1992 the pork population hold relatively constant over this time only fluctuating a few 100k per year. However, it was roughly constant between 1980-1994 so this most likely has to do with the long term consistency in pork consumption.</t>
+  </si>
+  <si>
+    <t>https://climateatlas.ca/map/canada/hwnum_2060_85#z=6&amp;lat=49.52&amp;lng=-99.57&amp;grid=750, https://vancouversun.com/news/heatwave-animal-deaths#:~:text=At%20least%20651%2C000%20animals%20died,freedom%2Dof%2Dinformation%20request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada is such a large country that a large heatwave is still a local or provincial issue and only affects animals in that area. Heatwaves are also a somewhat common occurance usually occuring 1-3 times per year in Alberta and British Columbia. While this does affect livestock and often causes mass casualties, it sadly occurs often enough that this is most likely taken into account by our sources given that it happens almost every year so is an almost constant yearly pressure. </t>
+  </si>
+  <si>
+    <t>1987+</t>
+  </si>
+  <si>
+    <t>In 1987, Canada and the United States of America signed what would become the North American Free Trade Agreement. This allowed Canada to easily export it's livestock products to the USA which is one of the largest consumers of beef in the world. So we would expect to see the population of cattle in Canada to rise to meet this new demand. Almost exactly around this time we see the population start growing by hundreds of thousands of cattle a year. This makes complete sense given the new market for canadian beef.</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/corporate/publications-manuals/operational-bulletins-manuals/temporary-residents/foreign-workers/international-free-trade-agreements/north-american.html</t>
+  </si>
+  <si>
+    <t>1960+</t>
+  </si>
+  <si>
+    <t>Japan and the United States of America are Canada's two largest trade partners of pork consuming over half of Canada's pork exported. One such reason for this is Japans consumption of meet, specifically pork has increased dramatically post WW2 as they have adopted a more western style diet. America has held a reletivly constant consumption of pork per capita, but has also had a growing population. So since both these countries import so much of canadian pork, we would expect to see the pork population of Canada increase to handle this increase in consumption. FAOSTAT shows this growth with an almost doubling of pork production between 1960 and 2020 so this makes sense given global trade and global consumer preference for pork.</t>
+  </si>
+  <si>
+    <t>https://www.cpc-ccp.com/foreign-trade, https://www.ers.usda.gov/webdocs/outlooks/37377/15778_ldpm13001_1_.pdf?v=4618, https://www.sciencedirect.com/science/article/abs/pii/0091743578902463?via%3Dihub</t>
   </si>
 </sst>
 </file>
@@ -197,9 +272,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,12 +287,6 @@
       <color rgb="FF2E3743"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -258,14 +327,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -581,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229AF8B9-8708-9243-BEE3-2FDC59C088B5}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="186" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -658,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -681,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -704,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -727,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -750,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -773,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -796,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -819,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -842,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -865,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -888,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -911,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -934,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -957,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -980,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -991,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1000,9 +1068,32 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>2009</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1014,19 +1105,19 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
         <v>15</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1037,19 +1128,19 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
         <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1060,19 +1151,19 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1083,19 +1174,19 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1106,19 +1197,19 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1129,19 +1220,19 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1152,19 +1243,19 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1175,19 +1266,19 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1198,19 +1289,19 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1221,19 +1312,19 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1241,22 +1332,22 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>2018</v>
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1264,22 +1355,45 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>2019</v>
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1287,22 +1401,45 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>2020</v>
+      </c>
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,22 +1447,45 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>2019</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1333,22 +1493,22 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1356,45 +1516,68 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="3">
+        <v>11</v>
+      </c>
+      <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40">
-        <v>2020</v>
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1402,31 +1585,210 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41">
-        <v>2019</v>
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>50</v>
+      <c r="F44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FoundData/CanadaDataInvestigation.xlsx
+++ b/FoundData/CanadaDataInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF824BE9-C41E-DA48-A71A-1106AE65856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9F3A48-6F95-1A42-9F03-A4F498C618BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{057CB1F5-B2FC-4B47-80C1-67359F9ECE82}"/>
   </bookViews>
@@ -185,33 +185,18 @@
     <t>https://climatedata.ca/case-study/drought-and-agriculture/#:~:text=Many%20other%20significant%20droughts%20have,%2C4%20(Figure%201)., https://www150.statcan.gc.ca/n1/pub/95-640-x/2016001/article/14808-eng.htm</t>
   </si>
   <si>
-    <t>Between 1960-1962 there was a drought in Canada. Droughts severly affect the canadian prairies and since 75% of canadian cattle are in Alberta, Saskatchewan, and Manitoba, we should see it impact on the cattle population. However, the FAOSTAT cattle population for this year shows an increase of 200k cattle or a little under 2 percent. As the drought was only 3 years long. It is realistic for the population to increase by a little since Canada is a big country, and other provinces could have picked up the slack from the prairies.</t>
-  </si>
-  <si>
     <t>2001-2003</t>
   </si>
   <si>
-    <t>Between 2001-2003 there was a drought in Canada. Droughts severly affect the canadian prairies and since 75% of canadian cattle are in Alberta, Saskatchewan, and Manitoba, we should see it impact on the cattle population. FAOSTAT shows the population initially increasing in 2002 and then dropping bellow the 2001 numbers in 2003. This makes sense because lack of grass and feed due to reduced rain. This will also make food more expensive in the winter since there's less crops and less crop by product to feed the cows.</t>
-  </si>
-  <si>
     <t>1988-1989</t>
   </si>
   <si>
-    <t>Between 1988-1989 there was a drought in Canada. Droughts severly affect the canadian prairies and since 75% of canadian cattle are in Alberta, Saskatchewan, and Manitoba, we should see it impact on the cattle population. However, the FAOSTAT cattle population for this year shows an increase of ~200k cattle or a little under 2 percent. As the drought was only a yeara long. It is realistic for the population to increase by a little since Canada is a big country, and other provinces could have picked up the slack from the prairies.</t>
-  </si>
-  <si>
     <t>2008-2010</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2008 a recession hit canada and it would take until 2010 for the GDP of canada to recover to 2008 numbers. This was hard on consumers and as a result forced consumers to buy cheaper alternative products as many lost their jobs and tightened their wallets. So many consumers often buy cheaper protein, and reduce the amount of beef they are buying. This means we should see the beef population stagenate or decrease following a recesssion as consumers buy less so farmers produce less. FAOSTAT shows a decrease in cattle population over this time. However, we start to see the population start decreasing before 2008 and continue past 2010 so there is most likely another external factor affecting the population. </t>
-  </si>
-  <si>
     <t>WOAH</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2008 a recession hit canada and it would take until 2010 for the GDP of canada to recover to 2008 numbers. This was hard on consumers and as a result forced consumers to buy cheaper alternative products as many lost their jobs and tightened their wallets. So many consumers often buy cheaper protein, and reduce the amount of beef they are buying. This means we should see the beef population stagenate or decrease following a recesssion as consumers buy less so farmers produce less. WOAH shows the population of cattle decrease by a little in 2009, then decline by a larger amount in 2010. This could be because stocks increased in 2009 with the unexpected decrease in demand, then stocks fell more in 2010 due to farmers reducing supply to match the decrease in consumer demand. However, we start to see the population start decreasing before 2008 and continue past 2010 so there is most likely another external factor affecting the population. </t>
-  </si>
-  <si>
     <t>https://www.thecanadianencyclopedia.ca/en/article/recession#:~:text=dates%20in%20Canada.-,History%20of%20Recessions%20in%20Canada,09%20recession%2C%20lasted%20seven%20months.</t>
   </si>
   <si>
@@ -221,49 +206,64 @@
     <t>2007-2011</t>
   </si>
   <si>
-    <t>FAOSTAT between these dates showed zero change in population which is extremely unliklely given how many years this pattern covers.</t>
-  </si>
-  <si>
     <t>https://gbadske.org/dashboards/census/</t>
   </si>
   <si>
-    <t>In 2008 a recession hit canada and it would take until 2010 for the GDP of canada to recover to 2008 numbers. This was hard on consumers and as a result forced consumers to buy cheaper alternative products as many lost their jobs and tightened their wallets. So many consumers often buy cheaper protein, and reduce the amount of beef they are buying. Pork is generally a cheaper protein so we would expect to see pork populations increase to handle this increase in consumer demand. Between 2006 and 2008 FAOSTAT shows the pig population declining. However, in 2008 through 2010 we see the pig population stagnate instead of decrease. This could be in response to the increased consumer demand so this would make sense as a trend in the data.</t>
-  </si>
-  <si>
     <t>1990-1992</t>
   </si>
   <si>
-    <t>In 1990 Canada had a two year recession. The Bank of Canada had to raise interest rates to as high as 14.75% which put a lot of pressure on Canadian consumers. As a result we would expect consumer preference to drop toward cheaper protein so consumption of beef would drop. Between 1990 and 1992 we see the cattle population increase by 600k cows. This is a little suprising but given that the population was on an almost constant growth trend between 1987 and 2005, this can be explained a little by that fact althought we should see an impact from the recession.</t>
-  </si>
-  <si>
-    <t>In 1990 Canada had a two year recession. The Bank of Canada had to raise interest rates to as high as 14.75% which put a lot of pressure on Canadian consumers. As a result we would expect consumer preference to drop toward cheaper protein so consumption of beef would drop and the consumptio of chicken and pork to increase due to their lower price. Between 1990 and 1992 we see the chicken population stagnate and actually decrease in 1992. This is not what we would expect given the economic climate at the time.</t>
-  </si>
-  <si>
-    <t>In 1990 Canada had a two year recession. The Bank of Canada had to raise interest rates to as high as 14.75% which put a lot of pressure on Canadian consumers. As a result we would expect consumer preference to drop toward cheaper protein so consumption of beef would drop and the consumptio of chicken and pork to increase due to their lower price. Between 1990 and 1992 the pork population hold relatively constant over this time only fluctuating a few 100k per year. However, it was roughly constant between 1980-1994 so this most likely has to do with the long term consistency in pork consumption.</t>
-  </si>
-  <si>
     <t>https://climateatlas.ca/map/canada/hwnum_2060_85#z=6&amp;lat=49.52&amp;lng=-99.57&amp;grid=750, https://vancouversun.com/news/heatwave-animal-deaths#:~:text=At%20least%20651%2C000%20animals%20died,freedom%2Dof%2Dinformation%20request.</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada is such a large country that a large heatwave is still a local or provincial issue and only affects animals in that area. Heatwaves are also a somewhat common occurance usually occuring 1-3 times per year in Alberta and British Columbia. While this does affect livestock and often causes mass casualties, it sadly occurs often enough that this is most likely taken into account by our sources given that it happens almost every year so is an almost constant yearly pressure. </t>
-  </si>
-  <si>
     <t>1987+</t>
   </si>
   <si>
-    <t>In 1987, Canada and the United States of America signed what would become the North American Free Trade Agreement. This allowed Canada to easily export it's livestock products to the USA which is one of the largest consumers of beef in the world. So we would expect to see the population of cattle in Canada to rise to meet this new demand. Almost exactly around this time we see the population start growing by hundreds of thousands of cattle a year. This makes complete sense given the new market for canadian beef.</t>
-  </si>
-  <si>
     <t>https://www.canada.ca/en/immigration-refugees-citizenship/corporate/publications-manuals/operational-bulletins-manuals/temporary-residents/foreign-workers/international-free-trade-agreements/north-american.html</t>
   </si>
   <si>
     <t>1960+</t>
   </si>
   <si>
-    <t>Japan and the United States of America are Canada's two largest trade partners of pork consuming over half of Canada's pork exported. One such reason for this is Japans consumption of meet, specifically pork has increased dramatically post WW2 as they have adopted a more western style diet. America has held a reletivly constant consumption of pork per capita, but has also had a growing population. So since both these countries import so much of canadian pork, we would expect to see the pork population of Canada increase to handle this increase in consumption. FAOSTAT shows this growth with an almost doubling of pork production between 1960 and 2020 so this makes sense given global trade and global consumer preference for pork.</t>
-  </si>
-  <si>
     <t>https://www.cpc-ccp.com/foreign-trade, https://www.ers.usda.gov/webdocs/outlooks/37377/15778_ldpm13001_1_.pdf?v=4618, https://www.sciencedirect.com/science/article/abs/pii/0091743578902463?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Between 1960-1962 there was a drought in Canada. Droughts severely affect the Canadian prairies and since 75% of Canadian cattle are in Alberta, Saskatchewan, and Manitoba, we should see it impact on the cattle population. However, the FAOSTAT cattle population for this year shows an increase of 200k cattle or a little under 2 percent. As the drought was only 3 years long. It is realistic for the population to increase by a little since Canada is a big country, and other provinces could have picked up the slack from the prairies.</t>
+  </si>
+  <si>
+    <t>Between 1988-1989 there was a drought in Canada. Droughts severely affect the Canadian prairies and since 75% of Canadian cattle are in Alberta, Saskatchewan, and Manitoba, we should see it impact on the cattle population. However, the FAOSTAT cattle population for this year shows an increase of ~200k cattle or a little under 2 percent. As the drought was only a year long. It is realistic for the population to increase by a little since Canada is a big country, and other provinces could have picked up the slack from the prairies.</t>
+  </si>
+  <si>
+    <t>Between 2001-2003 there was a drought in Canada. Droughts severely affect the Canadian prairies and since 75% of Canadian cattle are in Alberta, Saskatchewan, and Manitoba, we should see it impact on the cattle population. FAOSTAT shows the population initially increasing in 2002 and then dropping bellow the 2001 numbers in 2003. This makes sense because lack of grass and feed due to reduced rain. This will also make food more expensive in the winter since there's less crops and less crop by product to feed the cows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2008 a recession hit Canada and it would take until 2010 for the GDP of Canada to recover to 2008 numbers. This was hard on consumers and as a result forced consumers to buy cheaper alternative products as many lost their jobs and tightened their wallets. So many consumers often buy cheaper protein, and reduce the amount of beef they are buying. This means we should see the beef population stagnate or decrease following a recession as consumers buy less so farmers produce less. FAOSTAT shows a decrease in cattle population over this time. However, we start to see the population start decreasing before 2008 and continue past 2010 so there is most likely another external factor affecting the population. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2008 a recession hit Canada and it would take until 2010 for the GDP of Canada to recover to 2008 numbers. This was hard on consumers and as a result forced consumers to buy cheaper alternative products as many lost their jobs and tightened their wallets. So many consumers often buy cheaper protein, and reduce the amount of beef they are buying. This means we should see the beef population stagnate or decrease following a recession as consumers buy less so farmers produce less. WOAH shows the population of cattle decrease by a little in 2009, then decline by a larger amount in 2010. This could be because stocks increased in 2009 with the unexpected decrease in demand, then stocks fell more in 2010 due to farmers reducing supply to match the decrease in consumer demand. However, we start to see the population start decreasing before 2008 and continue past 2010 so there is most likely another external factor affecting the population. </t>
+  </si>
+  <si>
+    <t>FAOSTAT between these dates showed zero change in population which is extremely unlikely given how many years this pattern covers.</t>
+  </si>
+  <si>
+    <t>In 2008 a recession hit Canada and it would take until 2010 for the GDP of Canada to recover to 2008 numbers. This was hard on consumers and as a result forced consumers to buy cheaper alternative products as many lost their jobs and tightened their wallets. So many consumers often buy cheaper protein, and reduce the amount of beef they are buying. Pork is generally a cheaper protein so we would expect to see pork populations increase to handle this increase in consumer demand. Between 2006 and 2008 FAOSTAT shows the pig population declining. However, in 2008 through 2010 we see the pig population stagnate instead of decrease. This could be in response to the increased consumer demand so this would make sense as a trend in the data.</t>
+  </si>
+  <si>
+    <t>In 1990 Canada had a two year recession. The Bank of Canada had to raise interest rates to as high as 14.75% which put a lot of pressure on Canadian consumers. As a result we would expect consumer preference to drop toward cheaper protein so consumption of beef would drop. Between 1990 and 1992 we see the cattle population increase by 600k cows. This is a little surprising but given that the population was on an almost constant growth trend between 1987 and 2005, this can be explained a little by that fact although we should see an impact from the recession.</t>
+  </si>
+  <si>
+    <t>In 1990 Canada had a two year recession. The Bank of Canada had to raise interest rates to as high as 14.75% which put a lot of pressure on Canadian consumers. As a result we would expect consumer preference to drop toward cheaper protein so consumption of beef would drop and the consumption of chicken and pork to increase due to their lower price. Between 1990 and 1992 we see the chicken population stagnate and actually decrease in 1992. This is not what we would expect given the economic climate at the time.</t>
+  </si>
+  <si>
+    <t>In 1990 Canada had a two year recession. The Bank of Canada had to raise interest rates to as high as 14.75% which put a lot of pressure on Canadian consumers. As a result we would expect consumer preference to drop toward cheaper protein so consumption of beef would drop and the consumption of chicken and pork to increase due to their lower price. Between 1990 and 1992 the pork population hold relatively constant over this time only fluctuating a few 100k per year. However, it was roughly constant between 1980-1994 so this most likely has to do with the long term consistency in pork consumption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada is such a large country that a large heatwave is still a local or provincial issue and only affects animals in that area. Heatwaves are also a somewhat common occurrence usually occurring 1-3 times per year in Alberta and British Columbia. While this does affect livestock and often causes mass casualties, it sadly occurs often enough that this is most likely taken into account by our sources given that it happens almost every year so is an almost constant yearly pressure. </t>
+  </si>
+  <si>
+    <t>In 1987, Canada and the United States of America signed what would become the North American Free Trade Agreement. This allowed Canada to easily export it's livestock products to the USA which is one of the largest consumers of beef in the world. So we would expect to see the population of cattle in Canada to rise to meet this new demand. Almost exactly around this time we see the population start growing by hundreds of thousands of cattle a year. This makes complete sense given the new market for Canadian beef.</t>
+  </si>
+  <si>
+    <t>Japan and the United States of America are Canada's two largest trade partners of pork consuming over half of Canada's pork exported. One such reason for this is Japan's consumption of meet, specifically pork has increased dramatically post WW2 as they have adopted a more western style diet. America has held a relatively constant consumption of pork per capita, but has also had a growing population. So since both these countries import so much of Canadian pork, we would expect to see the pork population of Canada increase to handle this increase in consumption. FAOSTAT shows this growth with an almost doubling of pork production between 1960 and 2020 so this makes sense given global trade and global consumer preference for pork.</t>
   </si>
 </sst>
 </file>
@@ -353,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +393,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -499,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229AF8B9-8708-9243-BEE3-2FDC59C088B5}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="186" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="186" workbookViewId="0">
+      <selection activeCell="F49" sqref="A2:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
         <v>48</v>
@@ -1496,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1505,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
         <v>48</v>
@@ -1519,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -1528,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
         <v>48</v>
@@ -1542,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -1551,10 +1551,10 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1565,19 +1565,19 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -1597,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -1620,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -1643,10 +1643,10 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -1666,10 +1666,10 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1680,7 +1680,7 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -1689,10 +1689,10 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1703,7 +1703,7 @@
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -1712,10 +1712,10 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1735,10 +1735,10 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -1758,10 +1758,10 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -1781,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
